--- a/data/outputs/management_altmetric/90.xlsx
+++ b/data/outputs/management_altmetric/90.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1276,6 +1284,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1527,6 +1538,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1770,6 +1784,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2013,6 +2030,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2264,6 +2284,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2507,6 +2530,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2758,6 +2784,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3001,6 +3030,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3252,6 +3284,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3501,6 +3536,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3756,6 +3794,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4006,6 +4047,9 @@
       </c>
       <c r="CE14" t="n">
         <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -4254,6 +4298,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4499,6 +4546,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4746,6 +4796,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4995,6 +5048,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>13.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5254,6 +5310,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5509,6 +5568,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>22.16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5759,6 +5821,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -6011,6 +6076,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>5.35</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6252,6 +6320,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6493,6 +6564,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6738,6 +6812,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6987,6 +7064,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7228,6 +7308,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7479,6 +7562,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7730,6 +7816,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7971,6 +8060,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8222,6 +8314,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8473,6 +8568,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>20.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8726,6 +8824,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8980,6 +9081,9 @@
       </c>
       <c r="CE34" t="n">
         <v>0</v>
+      </c>
+      <c r="CF34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -9228,6 +9332,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9483,6 +9590,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9740,6 +9850,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9995,6 +10108,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10252,6 +10368,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10503,6 +10622,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10756,6 +10878,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11009,6 +11134,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11258,6 +11386,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11509,6 +11640,9 @@
         <v>0</v>
       </c>
       <c r="CE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11756,6 +11890,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12011,6 +12148,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12264,6 +12404,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12513,6 +12656,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12762,6 +12908,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13017,6 +13166,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>33.83</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13258,6 +13410,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13501,6 +13656,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13748,6 +13906,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13995,6 +14156,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14238,6 +14402,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14481,6 +14648,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14724,6 +14894,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>17.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14967,6 +15140,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15208,6 +15384,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15458,6 +15637,9 @@
       </c>
       <c r="CE60" t="n">
         <v>0</v>
+      </c>
+      <c r="CF60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -15698,6 +15880,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15949,6 +16134,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16198,6 +16386,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16449,6 +16640,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>14.52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
